--- a/PVTO.xlsx
+++ b/PVTO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Pressure (psia)</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0.00878930860386605</v>
+        <v>0.1162216402902751</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2">
-        <v>1.085372616071327</v>
+        <v>1.143548406185241</v>
       </c>
       <c r="D2">
-        <v>1.080571163496263</v>
+        <v>0.8282530991886153</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -434,16 +434,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>0.01267690770556833</v>
+        <v>0.1498031341417626</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3">
-        <v>1.098848524502762</v>
+        <v>1.159955780764616</v>
       </c>
       <c r="D3">
-        <v>1.055216070788403</v>
+        <v>0.8057748446783823</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -451,67 +451,67 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.296001417174004</v>
       </c>
       <c r="B4">
         <v>900</v>
       </c>
       <c r="C4">
-        <v>1.133701120244074</v>
+        <v>1.231821262345502</v>
       </c>
       <c r="D4">
-        <v>1.006139992453811</v>
+        <v>0.7193136704834024</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.4402667545719619</v>
       </c>
       <c r="B5">
         <v>1250</v>
       </c>
       <c r="C5">
-        <v>1.125505091625814</v>
+        <v>1.30344730518867</v>
       </c>
       <c r="D5">
-        <v>1.050873933552958</v>
+        <v>0.6500612503083237</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.5592346242831165</v>
       </c>
       <c r="B6">
         <v>1500</v>
       </c>
       <c r="C6">
-        <v>1.120114292580511</v>
+        <v>1.363607283954145</v>
       </c>
       <c r="D6">
-        <v>1.082234228231758</v>
+        <v>0.6016703844379322</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B7">
         <v>1750</v>
       </c>
       <c r="C7">
-        <v>1.11506067668024</v>
+        <v>1.427045742332629</v>
       </c>
       <c r="D7">
-        <v>1.113136132069245</v>
+        <v>0.5594648600787343</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
       <c r="C8">
-        <v>1.110308443579108</v>
+        <v>1.412696676147325</v>
       </c>
       <c r="D8">
-        <v>1.143605819834113</v>
+        <v>0.5826988512254297</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -536,16 +536,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B9">
         <v>2250</v>
       </c>
       <c r="C9">
-        <v>1.105827139502775</v>
+        <v>1.399674171024946</v>
       </c>
       <c r="D9">
-        <v>1.173665866867939</v>
+        <v>0.6056513339984361</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -553,16 +553,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B10">
         <v>2500</v>
       </c>
       <c r="C10">
-        <v>1.101590642051814</v>
+        <v>1.387771373107714</v>
       </c>
       <c r="D10">
-        <v>1.203335928686307</v>
+        <v>0.628362888747945</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -570,16 +570,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B11">
         <v>2750</v>
       </c>
       <c r="C11">
-        <v>1.097576375794011</v>
+        <v>1.37682585693647</v>
       </c>
       <c r="D11">
-        <v>1.232633267137996</v>
+        <v>0.6508647199596943</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -587,86 +587,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>0.02373860078551582</v>
+        <v>0.6846514270039978</v>
       </c>
       <c r="B12">
         <v>3000</v>
       </c>
       <c r="C12">
-        <v>1.093764698224268</v>
+        <v>1.366707751087719</v>
       </c>
       <c r="D12">
-        <v>1.261573162916879</v>
+        <v>0.6731811812813191</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>0.02373860078551582</v>
-      </c>
-      <c r="B13">
-        <v>4000</v>
-      </c>
-      <c r="C13">
-        <v>1.080228983962805</v>
-      </c>
-      <c r="D13">
-        <v>1.374011203269667</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>0.02373860078551582</v>
-      </c>
-      <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>1.068864487951292</v>
-      </c>
-      <c r="D14">
-        <v>1.481613351480979</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>0.02373860078551582</v>
-      </c>
-      <c r="B15">
-        <v>5500</v>
-      </c>
-      <c r="C15">
-        <v>1.063821373001866</v>
-      </c>
-      <c r="D15">
-        <v>1.533758947574528</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>0.02373860078551582</v>
-      </c>
-      <c r="B16">
-        <v>6000</v>
-      </c>
-      <c r="C16">
-        <v>1.059135656676097</v>
-      </c>
-      <c r="D16">
-        <v>1.584868265170233</v>
-      </c>
-      <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
